--- a/test/Plant_metabolites.xlsx
+++ b/test/Plant_metabolites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CMU_TEAM\Coding_part\Module\ComplexHeatmap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5926E864-C62B-4425-AC47-D6A774E9FAED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A408D0F9-8A92-4B60-942D-D1311D0C26F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0833292F-3E3D-45FB-9062-3280B9C136E1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
   <si>
     <t>ID</t>
   </si>
@@ -75,16 +75,64 @@
   </si>
   <si>
     <t>Xylose</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>T6</t>
+  </si>
+  <si>
+    <t>T7</t>
+  </si>
+  <si>
+    <t>T8</t>
+  </si>
+  <si>
+    <t>T9</t>
+  </si>
+  <si>
+    <t>T10</t>
+  </si>
+  <si>
+    <t>T11</t>
+  </si>
+  <si>
+    <t>T12</t>
+  </si>
+  <si>
+    <t>T13</t>
+  </si>
+  <si>
+    <t>T14</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -429,7 +477,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="A2" sqref="A2:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -465,24 +513,24 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>13</v>
       </c>
       <c r="B2">
         <f ca="1">RANDBETWEEN(20,120)</f>
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:E6" ca="1" si="0">RANDBETWEEN(20,120)</f>
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
@@ -495,24 +543,24 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>14</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B6" ca="1" si="1">RANDBETWEEN(20,120)</f>
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="F3" t="s">
         <v>5</v>
@@ -525,24 +573,24 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
+      <c r="A4" t="s">
+        <v>15</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -555,24 +603,24 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
+      <c r="A5" t="s">
+        <v>16</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -585,24 +633,24 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
+      <c r="A6" t="s">
+        <v>17</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>112</v>
+        <v>48</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="F6" t="s">
         <v>5</v>
@@ -615,24 +663,24 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
+      <c r="A7" t="s">
+        <v>18</v>
       </c>
       <c r="B7">
         <f ca="1">RANDBETWEEN(0,70)</f>
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C7">
         <f t="shared" ref="C7:E11" ca="1" si="2">RANDBETWEEN(0,70)</f>
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="2"/>
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="2"/>
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
         <v>6</v>
@@ -645,20 +693,20 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
+      <c r="A8" t="s">
+        <v>19</v>
       </c>
       <c r="B8">
         <f t="shared" ref="B8:B11" ca="1" si="3">RANDBETWEEN(0,70)</f>
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="2"/>
@@ -675,24 +723,24 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
+      <c r="A9" t="s">
+        <v>20</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="3"/>
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="2"/>
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
         <v>6</v>
@@ -705,24 +753,24 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
+      <c r="A10" t="s">
+        <v>21</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="3"/>
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="2"/>
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="2"/>
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F10" t="s">
         <v>6</v>
@@ -735,24 +783,24 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
+      <c r="A11" t="s">
+        <v>22</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="3"/>
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="2"/>
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="2"/>
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F11" t="s">
         <v>6</v>
@@ -765,24 +813,24 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
+      <c r="A12" t="s">
+        <v>23</v>
       </c>
       <c r="B12">
         <f ca="1">RANDBETWEEN(30,90)</f>
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C12">
         <f t="shared" ref="C12:E15" ca="1" si="4">RANDBETWEEN(30,90)</f>
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="4"/>
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="4"/>
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F12" t="s">
         <v>7</v>
@@ -795,24 +843,24 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
+      <c r="A13" t="s">
+        <v>24</v>
       </c>
       <c r="B13">
         <f t="shared" ref="B13:B15" ca="1" si="5">RANDBETWEEN(30,90)</f>
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="4"/>
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="4"/>
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="4"/>
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F13" t="s">
         <v>7</v>
@@ -825,24 +873,24 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
+      <c r="A14" t="s">
+        <v>25</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="5"/>
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="4"/>
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="4"/>
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="4"/>
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="F14" t="s">
         <v>7</v>
@@ -855,24 +903,24 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
+      <c r="A15" t="s">
+        <v>26</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="5"/>
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="4"/>
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="4"/>
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="4"/>
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="F15" t="s">
         <v>7</v>
@@ -885,6 +933,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>